--- a/ACSTV/Data Files/Application.xlsx
+++ b/ACSTV/Data Files/Application.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rtdeguzman\Documents\Katalon\Projects\ACSTV MNS\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtdeguzman\Documents\Katalon\Projects\ACSTV\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEE8A66-5710-4B13-AD42-26E907F11F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505675BE-73DC-4367-843B-1B5395983045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="14526" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Applications" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>IDCard</t>
   </si>
@@ -62,10 +62,46 @@
     <t>TST ENG ENGLISH</t>
   </si>
   <si>
-    <t>00001TESTER107</t>
-  </si>
-  <si>
-    <t>0001TSTR107</t>
+    <t>00001TESTER108</t>
+  </si>
+  <si>
+    <t>0001TSTR108</t>
+  </si>
+  <si>
+    <t>00001TESTER109</t>
+  </si>
+  <si>
+    <t>0001TSTR109</t>
+  </si>
+  <si>
+    <t>00001TESTER110</t>
+  </si>
+  <si>
+    <t>0001TSTR110</t>
+  </si>
+  <si>
+    <t>00001TESTER111</t>
+  </si>
+  <si>
+    <t>0001TSTR111</t>
+  </si>
+  <si>
+    <t>00001TESTER112</t>
+  </si>
+  <si>
+    <t>0001TSTR112</t>
+  </si>
+  <si>
+    <t>00001TESTER113</t>
+  </si>
+  <si>
+    <t>0001TSTR113</t>
+  </si>
+  <si>
+    <t>00001TESTER114</t>
+  </si>
+  <si>
+    <t>0001TSTR114</t>
   </si>
 </sst>
 </file>
@@ -392,22 +428,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -424,7 +460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -438,6 +474,108 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
